--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1690597.40007463</v>
+        <v>1689066.876252123</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24682991.4486012</v>
+        <v>24682991.44860119</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488437</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>36.39025468426208</v>
       </c>
       <c r="C3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="E4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>36.39025468426208</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G6" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752735</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="Y7" t="n">
         <v>41.31500304752735</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
     </row>
     <row r="10">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>15.18661160258025</v>
       </c>
-      <c r="C10" t="n">
+      <c r="G10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>9.62341403973824</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>170.5115643718728</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>275.8785654204481</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.76298808426327</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.4381736591986</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5491497884846</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.800070855163959</v>
       </c>
       <c r="S13" t="n">
         <v>149.7408175385913</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.3722297171108</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>275.8785654204481</v>
+        <v>111.3768379602097</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>213.4381736591986</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5491497884846</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>120.8548116590802</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S16" t="n">
         <v>149.7408175385913</v>
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773018</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426373</v>
       </c>
       <c r="T17" t="n">
         <v>213.4381736591986</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S19" t="n">
         <v>149.7408175385913</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884126</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2137,7 +2137,7 @@
         <v>213.4381736591986</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884854</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S22" t="n">
         <v>149.7408175385913</v>
@@ -2374,7 +2374,7 @@
         <v>213.4381736591986</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884854</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S25" t="n">
         <v>149.7408175385913</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S28" t="n">
         <v>149.7408175385913</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426463</v>
       </c>
       <c r="T29" t="n">
         <v>213.4381736591986</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5491497884863</v>
+        <v>256.5491497884846</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S31" t="n">
         <v>149.7408175385913</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S34" t="n">
         <v>149.7408175385913</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426463</v>
       </c>
       <c r="T35" t="n">
         <v>213.4381736591986</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S37" t="n">
         <v>149.7408175385913</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>59.76298808426463</v>
+        <v>59.76298808426327</v>
       </c>
       <c r="T38" t="n">
         <v>213.4381736591986</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S40" t="n">
         <v>149.7408175385913</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.3722297171108</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>275.8785654204481</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>59.76298808426327</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>384.577999703672</v>
+        <v>56.76747894519252</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S43" t="n">
         <v>149.7408175385913</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>362.5103173019154</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.3722297171108</v>
       </c>
       <c r="H44" t="n">
         <v>275.8785654204481</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>59.76298808426327</v>
       </c>
       <c r="T44" t="n">
-        <v>213.4381736591986</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>92.75261996755171</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8000708551639626</v>
+        <v>0.8000708551639555</v>
       </c>
       <c r="S46" t="n">
-        <v>149.7408175385913</v>
+        <v>149.7408175385922</v>
       </c>
       <c r="T46" t="n">
         <v>241.4817763110568</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.937837119923</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064263</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549119</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419042</v>
       </c>
       <c r="F2" t="n">
         <v>3.305200243802188</v>
@@ -4330,28 +4330,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K2" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L2" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M2" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N2" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O2" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P2" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q2" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4388,10 +4388,10 @@
         <v>86.76985286506957</v>
       </c>
       <c r="C3" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="D3" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="E3" t="n">
         <v>3.305200243802188</v>
@@ -4409,28 +4409,28 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>70.27072642131186</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K3" t="n">
-        <v>111.1725794383639</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L3" t="n">
-        <v>152.074432455416</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M3" t="n">
-        <v>165.2600121901094</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N3" t="n">
-        <v>165.2600121901094</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O3" t="n">
-        <v>165.2600121901094</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P3" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
@@ -4439,19 +4439,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y3" t="n">
         <v>123.5276858794757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="C4" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="D4" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="E4" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="F4" t="n">
         <v>45.03752655443588</v>
       </c>
-      <c r="C4" t="n">
+      <c r="G4" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4491,19 +4491,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O4" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P4" t="n">
         <v>124.3581591730573</v>
@@ -4518,22 +4518,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T4" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U4" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V4" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W4" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X4" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="5">
@@ -4567,25 +4567,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L5" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M5" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N5" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O5" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P5" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
         <v>124.3581591730573</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="D6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="E6" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="F6" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J6" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K6" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L6" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M6" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N6" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O6" t="n">
+        <v>42.55445313895319</v>
+      </c>
+      <c r="P6" t="n">
         <v>83.45630615600527</v>
-      </c>
-      <c r="P6" t="n">
-        <v>124.3581591730573</v>
       </c>
       <c r="Q6" t="n">
         <v>124.3581591730573</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C7" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D7" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E7" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="F7" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="G7" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="H7" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N7" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O7" t="n">
         <v>83.45630615600527</v>
@@ -4767,10 +4767,10 @@
         <v>143.8421908954813</v>
       </c>
       <c r="X7" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4807,25 +4807,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O8" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P8" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C9" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4892,16 +4892,16 @@
         <v>29.36887340425979</v>
       </c>
       <c r="M9" t="n">
-        <v>29.36887340425979</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N9" t="n">
-        <v>29.36887340425979</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O9" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P9" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
@@ -4928,7 +4928,7 @@
         <v>123.5276858794757</v>
       </c>
       <c r="Y9" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="C10" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="D10" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="E10" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="F10" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="G10" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="H10" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L10" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M10" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N10" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P10" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4989,25 +4989,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.37753827421391</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1811.06627339883</v>
+        <v>1646.874725227661</v>
       </c>
       <c r="C11" t="n">
-        <v>1372.923800582254</v>
+        <v>1208.732252411085</v>
       </c>
       <c r="D11" t="n">
-        <v>1372.923800582254</v>
+        <v>772.8224675855291</v>
       </c>
       <c r="E11" t="n">
-        <v>939.1490557405486</v>
+        <v>339.0477227438243</v>
       </c>
       <c r="F11" t="n">
-        <v>511.2816261497564</v>
+        <v>339.0477227438243</v>
       </c>
       <c r="G11" t="n">
         <v>339.0477227438243</v>
@@ -5047,19 +5047,19 @@
         <v>310.9817374637267</v>
       </c>
       <c r="L11" t="n">
-        <v>871.6811117545217</v>
+        <v>469.0270711036907</v>
       </c>
       <c r="M11" t="n">
-        <v>1618.914612953745</v>
+        <v>644.8829568537869</v>
       </c>
       <c r="N11" t="n">
-        <v>2366.148114152969</v>
+        <v>823.5843746869881</v>
       </c>
       <c r="O11" t="n">
-        <v>2534.890795637249</v>
+        <v>1385.176483126351</v>
       </c>
       <c r="P11" t="n">
-        <v>2678.908770284169</v>
+        <v>2132.409984325574</v>
       </c>
       <c r="Q11" t="n">
         <v>2787.060271468286</v>
@@ -5068,25 +5068,25 @@
         <v>3019.125257370601</v>
       </c>
       <c r="S11" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="T11" t="n">
-        <v>3019.125257370601</v>
+        <v>2743.16448793276</v>
       </c>
       <c r="U11" t="n">
-        <v>3019.125257370601</v>
+        <v>2484.023932590857</v>
       </c>
       <c r="V11" t="n">
-        <v>2656.508307304427</v>
+        <v>2484.023932590857</v>
       </c>
       <c r="W11" t="n">
-        <v>2656.508307304427</v>
+        <v>2484.023932590857</v>
       </c>
       <c r="X11" t="n">
-        <v>2237.365843883738</v>
+        <v>2064.881469170168</v>
       </c>
       <c r="Y11" t="n">
-        <v>2237.365843883738</v>
+        <v>1656.595345469821</v>
       </c>
     </row>
     <row r="12">
@@ -5184,40 +5184,40 @@
         <v>782.6831077130855</v>
       </c>
       <c r="E13" t="n">
-        <v>612.9251039638229</v>
+        <v>612.9251039638225</v>
       </c>
       <c r="F13" t="n">
-        <v>436.2180499255791</v>
+        <v>436.2180499255786</v>
       </c>
       <c r="G13" t="n">
-        <v>271.0851379883502</v>
+        <v>271.0851379883501</v>
       </c>
       <c r="H13" t="n">
-        <v>135.2582277708257</v>
+        <v>135.2582277708252</v>
       </c>
       <c r="I13" t="n">
         <v>60.38250514741201</v>
       </c>
       <c r="J13" t="n">
-        <v>92.14388715177377</v>
+        <v>178.7235723164636</v>
       </c>
       <c r="K13" t="n">
-        <v>419.0960490670964</v>
+        <v>505.6757342317863</v>
       </c>
       <c r="L13" t="n">
-        <v>904.0959065711166</v>
+        <v>990.6755917358066</v>
       </c>
       <c r="M13" t="n">
-        <v>1434.000438520091</v>
+        <v>1520.58012368478</v>
       </c>
       <c r="N13" t="n">
-        <v>1945.005460435537</v>
+        <v>2031.585145600227</v>
       </c>
       <c r="O13" t="n">
-        <v>2428.172969582086</v>
+        <v>2514.752654746777</v>
       </c>
       <c r="P13" t="n">
-        <v>2813.314623480657</v>
+        <v>2916.59327974271</v>
       </c>
       <c r="Q13" t="n">
         <v>3019.125257370601</v>
@@ -5226,13 +5226,13 @@
         <v>3018.317104991647</v>
       </c>
       <c r="S13" t="n">
-        <v>2867.063753942565</v>
+        <v>2867.063753942564</v>
       </c>
       <c r="T13" t="n">
         <v>2623.14276776978</v>
       </c>
       <c r="U13" t="n">
-        <v>2344.734768643083</v>
+        <v>2344.734768643082</v>
       </c>
       <c r="V13" t="n">
         <v>2057.779260513513</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1175.333497182623</v>
+        <v>1908.578793747506</v>
       </c>
       <c r="C14" t="n">
-        <v>1175.333497182623</v>
+        <v>1470.436320930929</v>
       </c>
       <c r="D14" t="n">
-        <v>739.4237123570675</v>
+        <v>1034.526536105373</v>
       </c>
       <c r="E14" t="n">
-        <v>739.4237123570675</v>
+        <v>600.7517912636686</v>
       </c>
       <c r="F14" t="n">
-        <v>739.4237123570675</v>
+        <v>172.8843616728763</v>
       </c>
       <c r="G14" t="n">
-        <v>339.0477227438243</v>
+        <v>172.8843616728763</v>
       </c>
       <c r="H14" t="n">
-        <v>60.38250514741201</v>
+        <v>60.382505147412</v>
       </c>
       <c r="I14" t="n">
         <v>98.58461283384875</v>
       </c>
       <c r="J14" t="n">
-        <v>551.5568745794053</v>
+        <v>618.8409645677729</v>
       </c>
       <c r="K14" t="n">
-        <v>678.952334928277</v>
+        <v>746.2364249166445</v>
       </c>
       <c r="L14" t="n">
-        <v>836.9976685682409</v>
+        <v>904.2817585566087</v>
       </c>
       <c r="M14" t="n">
-        <v>1584.231169767465</v>
+        <v>1640.947910361172</v>
       </c>
       <c r="N14" t="n">
-        <v>1762.932587600666</v>
+        <v>1819.649328194374</v>
       </c>
       <c r="O14" t="n">
-        <v>1931.675269084945</v>
+        <v>1988.392009678653</v>
       </c>
       <c r="P14" t="n">
-        <v>2678.908770284169</v>
+        <v>2132.409984325574</v>
       </c>
       <c r="Q14" t="n">
         <v>2787.060271468286</v>
       </c>
       <c r="R14" t="n">
-        <v>3019.125257370601</v>
+        <v>3019.1252573706</v>
       </c>
       <c r="S14" t="n">
-        <v>2958.758602740032</v>
+        <v>2958.758602740031</v>
       </c>
       <c r="T14" t="n">
         <v>2743.16448793276</v>
       </c>
       <c r="U14" t="n">
-        <v>2484.023932590857</v>
+        <v>2743.16448793276</v>
       </c>
       <c r="V14" t="n">
-        <v>2121.406982524683</v>
+        <v>2743.16448793276</v>
       </c>
       <c r="W14" t="n">
-        <v>1716.551527935717</v>
+        <v>2743.16448793276</v>
       </c>
       <c r="X14" t="n">
-        <v>1297.409064515027</v>
+        <v>2743.16448793276</v>
       </c>
       <c r="Y14" t="n">
-        <v>1175.333497182623</v>
+        <v>2334.878364232413</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>454.2707604190705</v>
       </c>
       <c r="D15" t="n">
-        <v>359.1804715656238</v>
+        <v>359.1804715656237</v>
       </c>
       <c r="E15" t="n">
-        <v>265.0600568925775</v>
+        <v>265.0600568925774</v>
       </c>
       <c r="F15" t="n">
         <v>181.6762185087391</v>
       </c>
       <c r="G15" t="n">
-        <v>96.83786231847485</v>
+        <v>96.83786231847483</v>
       </c>
       <c r="H15" t="n">
-        <v>60.38250514741201</v>
+        <v>60.382505147412</v>
       </c>
       <c r="I15" t="n">
         <v>104.8955218884672</v>
       </c>
       <c r="J15" t="n">
-        <v>480.0802557807501</v>
+        <v>155.5219308145378</v>
       </c>
       <c r="K15" t="n">
-        <v>865.2505403948169</v>
+        <v>242.0505273249663</v>
       </c>
       <c r="L15" t="n">
-        <v>981.5989166951335</v>
+        <v>358.398903625283</v>
       </c>
       <c r="M15" t="n">
-        <v>1117.371984039226</v>
+        <v>494.1719709693754</v>
       </c>
       <c r="N15" t="n">
-        <v>1256.738560470546</v>
+        <v>633.5385474006952</v>
       </c>
       <c r="O15" t="n">
-        <v>1384.231750434454</v>
+        <v>761.0317373646035</v>
       </c>
       <c r="P15" t="n">
-        <v>1486.556275378665</v>
+        <v>945.8173367465899</v>
       </c>
       <c r="Q15" t="n">
         <v>1554.957510483088</v>
@@ -5433,7 +5433,7 @@
         <v>135.2582277708257</v>
       </c>
       <c r="I16" t="n">
-        <v>60.38250514741201</v>
+        <v>60.382505147412</v>
       </c>
       <c r="J16" t="n">
         <v>92.14388715177377</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2516.185384719493</v>
+        <v>2516.185384719491</v>
       </c>
       <c r="C17" t="n">
-        <v>2078.042911902916</v>
+        <v>2078.042911902915</v>
       </c>
       <c r="D17" t="n">
         <v>1642.133127077359</v>
@@ -5515,52 +5515,52 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J17" t="n">
-        <v>224.6535174026494</v>
+        <v>659.9082048555672</v>
       </c>
       <c r="K17" t="n">
-        <v>352.048977751521</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L17" t="n">
-        <v>1585.154277644344</v>
+        <v>2690.1441641674</v>
       </c>
       <c r="M17" t="n">
-        <v>2840.594877405023</v>
+        <v>2866.000049917496</v>
       </c>
       <c r="N17" t="n">
-        <v>3439.330461972383</v>
+        <v>3044.701467750697</v>
       </c>
       <c r="O17" t="n">
-        <v>4588.252810026969</v>
+        <v>3213.444149234977</v>
       </c>
       <c r="P17" t="n">
-        <v>4732.270784673889</v>
+        <v>4185.771998715294</v>
       </c>
       <c r="Q17" t="n">
-        <v>4840.422285858007</v>
+        <v>4840.422285858006</v>
       </c>
       <c r="R17" t="n">
-        <v>5072.48727176032</v>
+        <v>5072.487271760319</v>
       </c>
       <c r="S17" t="n">
-        <v>5012.120617129752</v>
+        <v>5012.12061712975</v>
       </c>
       <c r="T17" t="n">
-        <v>4796.52650232248</v>
+        <v>4796.526502322478</v>
       </c>
       <c r="U17" t="n">
-        <v>4537.385946980577</v>
+        <v>4537.385946980575</v>
       </c>
       <c r="V17" t="n">
-        <v>4174.768996914403</v>
+        <v>4174.768996914401</v>
       </c>
       <c r="W17" t="n">
-        <v>3769.913542325437</v>
+        <v>3769.913542325435</v>
       </c>
       <c r="X17" t="n">
-        <v>3350.771078904747</v>
+        <v>3350.771078904746</v>
       </c>
       <c r="Y17" t="n">
-        <v>2942.484955204401</v>
+        <v>2942.484955204399</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.7944618702227</v>
+        <v>601.7944618702226</v>
       </c>
       <c r="C18" t="n">
         <v>495.3380007068649</v>
       </c>
       <c r="D18" t="n">
-        <v>400.2477118534182</v>
+        <v>400.2477118534181</v>
       </c>
       <c r="E18" t="n">
-        <v>306.1272971803719</v>
+        <v>306.1272971803718</v>
       </c>
       <c r="F18" t="n">
         <v>222.7434587965335</v>
       </c>
       <c r="G18" t="n">
-        <v>137.9051026062693</v>
+        <v>137.9051026062692</v>
       </c>
       <c r="H18" t="n">
         <v>101.4497454352064</v>
@@ -5597,22 +5597,22 @@
         <v>521.1474960685445</v>
       </c>
       <c r="K18" t="n">
-        <v>906.3177806826113</v>
+        <v>607.6760925789729</v>
       </c>
       <c r="L18" t="n">
-        <v>1022.666156982928</v>
+        <v>724.0244688792895</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.43922432702</v>
+        <v>859.7975362233821</v>
       </c>
       <c r="N18" t="n">
-        <v>1297.80580075834</v>
+        <v>999.1641126547017</v>
       </c>
       <c r="O18" t="n">
-        <v>1425.298990722248</v>
+        <v>1126.65730261861</v>
       </c>
       <c r="P18" t="n">
-        <v>1527.62351566646</v>
+        <v>1228.981827562822</v>
       </c>
       <c r="Q18" t="n">
         <v>1596.024750770882</v>
@@ -5624,7 +5624,7 @@
         <v>1693.16735164087</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.192427824648</v>
+        <v>1565.192427824647</v>
       </c>
       <c r="U18" t="n">
         <v>1388.891850136692</v>
@@ -5636,10 +5636,10 @@
         <v>1004.451577931885</v>
       </c>
       <c r="X18" t="n">
-        <v>849.5841421707651</v>
+        <v>849.5841421707649</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.0983629499858</v>
+        <v>723.0983629499857</v>
       </c>
     </row>
     <row r="19">
@@ -5658,13 +5658,13 @@
         <v>823.75034800088</v>
       </c>
       <c r="E19" t="n">
-        <v>653.9923442516173</v>
+        <v>653.9923442516172</v>
       </c>
       <c r="F19" t="n">
-        <v>477.2852902133735</v>
+        <v>477.2852902133734</v>
       </c>
       <c r="G19" t="n">
-        <v>312.152378276145</v>
+        <v>312.1523782761449</v>
       </c>
       <c r="H19" t="n">
         <v>176.3254680586201</v>
@@ -5673,25 +5673,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J19" t="n">
-        <v>133.2111274395682</v>
+        <v>219.790812604258</v>
       </c>
       <c r="K19" t="n">
-        <v>460.1632893548909</v>
+        <v>546.7429745195807</v>
       </c>
       <c r="L19" t="n">
-        <v>945.1631468589111</v>
+        <v>1031.742832023601</v>
       </c>
       <c r="M19" t="n">
-        <v>1475.067678807885</v>
+        <v>1561.647363972575</v>
       </c>
       <c r="N19" t="n">
-        <v>1986.072700723331</v>
+        <v>2072.652385888021</v>
       </c>
       <c r="O19" t="n">
-        <v>2469.240209869881</v>
+        <v>2555.819895034571</v>
       </c>
       <c r="P19" t="n">
-        <v>2871.080834865814</v>
+        <v>2957.660520030505</v>
       </c>
       <c r="Q19" t="n">
         <v>3060.192497658394</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2516.185384719493</v>
+        <v>2516.185384719491</v>
       </c>
       <c r="C20" t="n">
         <v>2078.042911902915</v>
@@ -5740,7 +5740,7 @@
         <v>1208.358382235654</v>
       </c>
       <c r="F20" t="n">
-        <v>780.4909526448619</v>
+        <v>780.490952644862</v>
       </c>
       <c r="G20" t="n">
         <v>380.1149630316187</v>
@@ -5767,37 +5767,37 @@
         <v>2134.256594385878</v>
       </c>
       <c r="O20" t="n">
-        <v>3213.444149234978</v>
+        <v>3213.444149234977</v>
       </c>
       <c r="P20" t="n">
-        <v>4185.771998715295</v>
+        <v>4185.771998715294</v>
       </c>
       <c r="Q20" t="n">
-        <v>4840.422285858007</v>
+        <v>4840.422285858006</v>
       </c>
       <c r="R20" t="n">
-        <v>5072.48727176032</v>
+        <v>5072.487271760319</v>
       </c>
       <c r="S20" t="n">
-        <v>5012.120617129752</v>
+        <v>5012.120617129751</v>
       </c>
       <c r="T20" t="n">
-        <v>4796.52650232248</v>
+        <v>4796.526502322479</v>
       </c>
       <c r="U20" t="n">
-        <v>4537.385946980577</v>
+        <v>4537.385946980575</v>
       </c>
       <c r="V20" t="n">
-        <v>4174.768996914403</v>
+        <v>4174.768996914401</v>
       </c>
       <c r="W20" t="n">
-        <v>3769.913542325437</v>
+        <v>3769.913542325435</v>
       </c>
       <c r="X20" t="n">
-        <v>3350.771078904747</v>
+        <v>3350.771078904746</v>
       </c>
       <c r="Y20" t="n">
-        <v>2942.484955204401</v>
+        <v>2942.484955204399</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.7944618702227</v>
+        <v>601.7944618702226</v>
       </c>
       <c r="C21" t="n">
         <v>495.3380007068649</v>
       </c>
       <c r="D21" t="n">
-        <v>400.2477118534182</v>
+        <v>400.2477118534181</v>
       </c>
       <c r="E21" t="n">
-        <v>306.1272971803719</v>
+        <v>306.1272971803718</v>
       </c>
       <c r="F21" t="n">
         <v>222.7434587965335</v>
       </c>
       <c r="G21" t="n">
-        <v>137.9051026062693</v>
+        <v>137.9051026062692</v>
       </c>
       <c r="H21" t="n">
         <v>101.4497454352064</v>
@@ -5843,7 +5843,7 @@
         <v>859.7975362233821</v>
       </c>
       <c r="N21" t="n">
-        <v>999.1641126547016</v>
+        <v>999.1641126547017</v>
       </c>
       <c r="O21" t="n">
         <v>1126.65730261861</v>
@@ -5861,7 +5861,7 @@
         <v>1693.16735164087</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.192427824648</v>
+        <v>1565.192427824647</v>
       </c>
       <c r="U21" t="n">
         <v>1388.891850136692</v>
@@ -5873,10 +5873,10 @@
         <v>1004.451577931885</v>
       </c>
       <c r="X21" t="n">
-        <v>849.5841421707651</v>
+        <v>849.5841421707649</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.0983629499858</v>
+        <v>723.0983629499857</v>
       </c>
     </row>
     <row r="22">
@@ -5895,13 +5895,13 @@
         <v>823.75034800088</v>
       </c>
       <c r="E22" t="n">
-        <v>653.9923442516173</v>
+        <v>653.9923442516172</v>
       </c>
       <c r="F22" t="n">
-        <v>477.2852902133735</v>
+        <v>477.2852902133734</v>
       </c>
       <c r="G22" t="n">
-        <v>312.152378276145</v>
+        <v>312.1523782761449</v>
       </c>
       <c r="H22" t="n">
         <v>176.3254680586201</v>
@@ -5910,25 +5910,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J22" t="n">
-        <v>219.790812604258</v>
+        <v>133.2111274395682</v>
       </c>
       <c r="K22" t="n">
-        <v>546.7429745195807</v>
+        <v>460.1632893548909</v>
       </c>
       <c r="L22" t="n">
-        <v>1031.742832023601</v>
+        <v>945.1631468589111</v>
       </c>
       <c r="M22" t="n">
-        <v>1561.647363972575</v>
+        <v>1475.067678807885</v>
       </c>
       <c r="N22" t="n">
-        <v>2072.652385888021</v>
+        <v>1986.072700723331</v>
       </c>
       <c r="O22" t="n">
-        <v>2555.819895034571</v>
+        <v>2452.541238772517</v>
       </c>
       <c r="P22" t="n">
-        <v>2957.660520030505</v>
+        <v>2854.381863768451</v>
       </c>
       <c r="Q22" t="n">
         <v>3060.192497658394</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2516.185384719493</v>
+        <v>2516.185384719492</v>
       </c>
       <c r="C23" t="n">
-        <v>2078.042911902916</v>
+        <v>2078.042911902915</v>
       </c>
       <c r="D23" t="n">
-        <v>1642.133127077361</v>
+        <v>1642.13312707736</v>
       </c>
       <c r="E23" t="n">
-        <v>1208.358382235656</v>
+        <v>1208.358382235655</v>
       </c>
       <c r="F23" t="n">
-        <v>780.4909526448637</v>
+        <v>780.4909526448628</v>
       </c>
       <c r="G23" t="n">
-        <v>380.1149630316195</v>
+        <v>380.1149630316187</v>
       </c>
       <c r="H23" t="n">
         <v>101.4497454352064</v>
@@ -5989,25 +5989,25 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J23" t="n">
-        <v>548.1281687796358</v>
+        <v>659.9082048555672</v>
       </c>
       <c r="K23" t="n">
-        <v>675.5236291285074</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L23" t="n">
-        <v>1908.628929021331</v>
+        <v>2690.144164167401</v>
       </c>
       <c r="M23" t="n">
-        <v>3164.06952878201</v>
+        <v>2866.000049917497</v>
       </c>
       <c r="N23" t="n">
-        <v>4419.510128542689</v>
+        <v>3044.701467750698</v>
       </c>
       <c r="O23" t="n">
-        <v>4588.252810026969</v>
+        <v>3213.444149234978</v>
       </c>
       <c r="P23" t="n">
-        <v>4732.270784673889</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q23" t="n">
         <v>4840.422285858007</v>
@@ -6022,19 +6022,19 @@
         <v>4796.52650232248</v>
       </c>
       <c r="U23" t="n">
-        <v>4537.385946980577</v>
+        <v>4537.385946980576</v>
       </c>
       <c r="V23" t="n">
-        <v>4174.768996914403</v>
+        <v>4174.768996914402</v>
       </c>
       <c r="W23" t="n">
-        <v>3769.913542325437</v>
+        <v>3769.913542325436</v>
       </c>
       <c r="X23" t="n">
-        <v>3350.771078904747</v>
+        <v>3350.771078904746</v>
       </c>
       <c r="Y23" t="n">
-        <v>2942.484955204401</v>
+        <v>2942.4849552044</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>521.1474960685445</v>
       </c>
       <c r="K24" t="n">
-        <v>607.6760925789729</v>
+        <v>906.3177806826113</v>
       </c>
       <c r="L24" t="n">
-        <v>724.0244688792895</v>
+        <v>1022.666156982928</v>
       </c>
       <c r="M24" t="n">
         <v>1158.43922432702</v>
@@ -6147,25 +6147,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J25" t="n">
-        <v>133.2111274395682</v>
+        <v>219.790812604258</v>
       </c>
       <c r="K25" t="n">
-        <v>460.1632893548909</v>
+        <v>546.7429745195807</v>
       </c>
       <c r="L25" t="n">
-        <v>945.1631468589111</v>
+        <v>1031.742832023601</v>
       </c>
       <c r="M25" t="n">
-        <v>1475.067678807885</v>
+        <v>1561.647363972575</v>
       </c>
       <c r="N25" t="n">
-        <v>1986.072700723331</v>
+        <v>2072.652385888021</v>
       </c>
       <c r="O25" t="n">
-        <v>2469.240209869881</v>
+        <v>2555.819895034571</v>
       </c>
       <c r="P25" t="n">
-        <v>2871.080834865814</v>
+        <v>2957.660520030505</v>
       </c>
       <c r="Q25" t="n">
         <v>3060.192497658394</v>
@@ -6302,31 +6302,31 @@
         <v>101.4497454352064</v>
       </c>
       <c r="I27" t="n">
-        <v>145.9627621762616</v>
+        <v>119.899089015804</v>
       </c>
       <c r="J27" t="n">
-        <v>521.1474960685445</v>
+        <v>396.2230236344467</v>
       </c>
       <c r="K27" t="n">
-        <v>906.3177806826113</v>
+        <v>482.7516201448752</v>
       </c>
       <c r="L27" t="n">
-        <v>1022.666156982928</v>
+        <v>599.099996445192</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.43922432702</v>
+        <v>734.8730637892844</v>
       </c>
       <c r="N27" t="n">
-        <v>1297.80580075834</v>
+        <v>874.2396402206041</v>
       </c>
       <c r="O27" t="n">
-        <v>1425.298990722248</v>
+        <v>1001.732830184512</v>
       </c>
       <c r="P27" t="n">
-        <v>1527.62351566646</v>
+        <v>1104.057355128724</v>
       </c>
       <c r="Q27" t="n">
-        <v>1596.024750770882</v>
+        <v>1713.197528865222</v>
       </c>
       <c r="R27" t="n">
         <v>1746.467453416424</v>
@@ -6384,25 +6384,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J28" t="n">
-        <v>133.2111274395682</v>
+        <v>219.790812604258</v>
       </c>
       <c r="K28" t="n">
-        <v>460.1632893548909</v>
+        <v>546.7429745195807</v>
       </c>
       <c r="L28" t="n">
-        <v>945.1631468589111</v>
+        <v>1031.742832023601</v>
       </c>
       <c r="M28" t="n">
-        <v>1475.067678807885</v>
+        <v>1561.647363972575</v>
       </c>
       <c r="N28" t="n">
-        <v>1986.072700723331</v>
+        <v>2072.652385888021</v>
       </c>
       <c r="O28" t="n">
-        <v>2469.240209869881</v>
+        <v>2555.819895034571</v>
       </c>
       <c r="P28" t="n">
-        <v>2871.080834865814</v>
+        <v>2957.660520030505</v>
       </c>
       <c r="Q28" t="n">
         <v>3060.192497658394</v>
@@ -6463,37 +6463,37 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J29" t="n">
-        <v>224.6535174026494</v>
+        <v>659.9082048555672</v>
       </c>
       <c r="K29" t="n">
-        <v>352.048977751521</v>
+        <v>787.3036652044389</v>
       </c>
       <c r="L29" t="n">
-        <v>1585.154277644344</v>
+        <v>2020.408965097262</v>
       </c>
       <c r="M29" t="n">
-        <v>2840.594877405023</v>
+        <v>2196.264850847359</v>
       </c>
       <c r="N29" t="n">
-        <v>4096.035477165703</v>
+        <v>2374.96626868056</v>
       </c>
       <c r="O29" t="n">
-        <v>4757.406874780026</v>
+        <v>3213.444149234978</v>
       </c>
       <c r="P29" t="n">
-        <v>4901.424849426946</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q29" t="n">
-        <v>5009.576350611063</v>
+        <v>4840.422285858007</v>
       </c>
       <c r="R29" t="n">
         <v>5072.48727176032</v>
       </c>
       <c r="S29" t="n">
-        <v>5012.120617129752</v>
+        <v>5012.12061712975</v>
       </c>
       <c r="T29" t="n">
-        <v>4796.52650232248</v>
+        <v>4796.526502322478</v>
       </c>
       <c r="U29" t="n">
         <v>4537.385946980575</v>
@@ -6539,31 +6539,31 @@
         <v>101.4497454352064</v>
       </c>
       <c r="I30" t="n">
-        <v>145.9627621762616</v>
+        <v>119.8990890158041</v>
       </c>
       <c r="J30" t="n">
-        <v>521.1474960685445</v>
+        <v>396.2230236344467</v>
       </c>
       <c r="K30" t="n">
-        <v>906.3177806826113</v>
+        <v>482.7516201448752</v>
       </c>
       <c r="L30" t="n">
-        <v>1022.666156982928</v>
+        <v>599.099996445192</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.43922432702</v>
+        <v>734.8730637892844</v>
       </c>
       <c r="N30" t="n">
-        <v>1297.80580075834</v>
+        <v>874.2396402206041</v>
       </c>
       <c r="O30" t="n">
-        <v>1425.298990722248</v>
+        <v>1001.732830184512</v>
       </c>
       <c r="P30" t="n">
-        <v>1527.62351566646</v>
+        <v>1104.057355128724</v>
       </c>
       <c r="Q30" t="n">
-        <v>1596.024750770882</v>
+        <v>1713.197528865222</v>
       </c>
       <c r="R30" t="n">
         <v>1746.467453416424</v>
@@ -6700,28 +6700,28 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J32" t="n">
-        <v>224.6535174026494</v>
+        <v>659.9082048555672</v>
       </c>
       <c r="K32" t="n">
-        <v>352.048977751521</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L32" t="n">
-        <v>510.094311391485</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.534911152164</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N32" t="n">
-        <v>3020.975510912843</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O32" t="n">
-        <v>4169.89785896743</v>
+        <v>3213.444149234978</v>
       </c>
       <c r="P32" t="n">
-        <v>4901.424849426946</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q32" t="n">
-        <v>5009.576350611063</v>
+        <v>4840.422285858007</v>
       </c>
       <c r="R32" t="n">
         <v>5072.48727176032</v>
@@ -6779,16 +6779,16 @@
         <v>119.8990890158041</v>
       </c>
       <c r="J33" t="n">
-        <v>396.223023634447</v>
+        <v>396.2230236344467</v>
       </c>
       <c r="K33" t="n">
-        <v>482.7516201448754</v>
+        <v>482.7516201448752</v>
       </c>
       <c r="L33" t="n">
-        <v>599.0999964451921</v>
+        <v>599.099996445192</v>
       </c>
       <c r="M33" t="n">
-        <v>734.8730637892845</v>
+        <v>734.8730637892844</v>
       </c>
       <c r="N33" t="n">
         <v>874.2396402206041</v>
@@ -6858,25 +6858,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J34" t="n">
-        <v>133.2111274395682</v>
+        <v>219.790812604258</v>
       </c>
       <c r="K34" t="n">
-        <v>460.1632893548909</v>
+        <v>546.7429745195807</v>
       </c>
       <c r="L34" t="n">
-        <v>945.1631468589111</v>
+        <v>1031.742832023601</v>
       </c>
       <c r="M34" t="n">
-        <v>1475.067678807885</v>
+        <v>1561.647363972575</v>
       </c>
       <c r="N34" t="n">
-        <v>1986.072700723331</v>
+        <v>2072.652385888021</v>
       </c>
       <c r="O34" t="n">
-        <v>2469.240209869881</v>
+        <v>2555.819895034571</v>
       </c>
       <c r="P34" t="n">
-        <v>2871.080834865814</v>
+        <v>2957.660520030505</v>
       </c>
       <c r="Q34" t="n">
         <v>3060.192497658394</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2516.185384719492</v>
+        <v>2516.185384719491</v>
       </c>
       <c r="C35" t="n">
         <v>2078.042911902915</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.13312707736</v>
+        <v>1642.133127077359</v>
       </c>
       <c r="E35" t="n">
-        <v>1208.358382235655</v>
+        <v>1208.358382235654</v>
       </c>
       <c r="F35" t="n">
-        <v>780.4909526448623</v>
+        <v>780.4909526448619</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1149630316186</v>
+        <v>380.1149630316187</v>
       </c>
       <c r="H35" t="n">
         <v>101.4497454352064</v>
@@ -6937,52 +6937,52 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J35" t="n">
-        <v>659.9082048555672</v>
+        <v>224.6535174026494</v>
       </c>
       <c r="K35" t="n">
-        <v>1621.653957162617</v>
+        <v>1186.399269709699</v>
       </c>
       <c r="L35" t="n">
-        <v>1779.699290802581</v>
+        <v>1344.444603349663</v>
       </c>
       <c r="M35" t="n">
-        <v>1955.555176552677</v>
+        <v>2599.885203110342</v>
       </c>
       <c r="N35" t="n">
-        <v>2134.256594385878</v>
+        <v>3608.484526725439</v>
       </c>
       <c r="O35" t="n">
-        <v>3213.444149234978</v>
+        <v>4757.406874780026</v>
       </c>
       <c r="P35" t="n">
-        <v>4185.771998715295</v>
+        <v>4901.424849426946</v>
       </c>
       <c r="Q35" t="n">
-        <v>4840.422285858007</v>
+        <v>5009.576350611063</v>
       </c>
       <c r="R35" t="n">
         <v>5072.48727176032</v>
       </c>
       <c r="S35" t="n">
-        <v>5012.120617129751</v>
+        <v>5012.12061712975</v>
       </c>
       <c r="T35" t="n">
-        <v>4796.526502322479</v>
+        <v>4796.526502322478</v>
       </c>
       <c r="U35" t="n">
-        <v>4537.385946980576</v>
+        <v>4537.385946980575</v>
       </c>
       <c r="V35" t="n">
-        <v>4174.768996914402</v>
+        <v>4174.768996914401</v>
       </c>
       <c r="W35" t="n">
-        <v>3769.913542325436</v>
+        <v>3769.913542325435</v>
       </c>
       <c r="X35" t="n">
         <v>3350.771078904746</v>
       </c>
       <c r="Y35" t="n">
-        <v>2942.4849552044</v>
+        <v>2942.484955204399</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>521.1474960685445</v>
       </c>
       <c r="K36" t="n">
-        <v>607.6760925789729</v>
+        <v>906.3177806826113</v>
       </c>
       <c r="L36" t="n">
-        <v>724.0244688792895</v>
+        <v>1022.666156982928</v>
       </c>
       <c r="M36" t="n">
-        <v>859.7975362233821</v>
+        <v>1158.43922432702</v>
       </c>
       <c r="N36" t="n">
-        <v>999.1641126547016</v>
+        <v>1297.80580075834</v>
       </c>
       <c r="O36" t="n">
-        <v>1126.65730261861</v>
+        <v>1425.298990722248</v>
       </c>
       <c r="P36" t="n">
         <v>1527.62351566646</v>
@@ -7110,10 +7110,10 @@
         <v>2072.652385888021</v>
       </c>
       <c r="O37" t="n">
-        <v>2555.819895034571</v>
+        <v>2452.541238772517</v>
       </c>
       <c r="P37" t="n">
-        <v>2957.660520030505</v>
+        <v>2854.381863768451</v>
       </c>
       <c r="Q37" t="n">
         <v>3060.192497658394</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2516.185384719491</v>
+        <v>2516.185384719492</v>
       </c>
       <c r="C38" t="n">
         <v>2078.042911902915</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.133127077359</v>
+        <v>1642.13312707736</v>
       </c>
       <c r="E38" t="n">
-        <v>1208.358382235654</v>
+        <v>1208.358382235655</v>
       </c>
       <c r="F38" t="n">
-        <v>780.4909526448619</v>
+        <v>780.4909526448623</v>
       </c>
       <c r="G38" t="n">
-        <v>380.1149630316187</v>
+        <v>380.1149630316186</v>
       </c>
       <c r="H38" t="n">
         <v>101.4497454352064</v>
@@ -7174,25 +7174,25 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J38" t="n">
-        <v>548.1281687796358</v>
+        <v>659.9082048555672</v>
       </c>
       <c r="K38" t="n">
-        <v>675.5236291285074</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L38" t="n">
-        <v>1908.628929021331</v>
+        <v>2690.144164167401</v>
       </c>
       <c r="M38" t="n">
-        <v>3164.06952878201</v>
+        <v>2866.000049917497</v>
       </c>
       <c r="N38" t="n">
-        <v>4419.510128542689</v>
+        <v>3044.701467750698</v>
       </c>
       <c r="O38" t="n">
-        <v>4588.252810026969</v>
+        <v>3213.444149234978</v>
       </c>
       <c r="P38" t="n">
-        <v>4732.270784673889</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q38" t="n">
         <v>4840.422285858007</v>
@@ -7201,25 +7201,25 @@
         <v>5072.48727176032</v>
       </c>
       <c r="S38" t="n">
-        <v>5012.12061712975</v>
+        <v>5012.120617129751</v>
       </c>
       <c r="T38" t="n">
-        <v>4796.526502322478</v>
+        <v>4796.526502322479</v>
       </c>
       <c r="U38" t="n">
-        <v>4537.385946980575</v>
+        <v>4537.385946980576</v>
       </c>
       <c r="V38" t="n">
-        <v>4174.768996914401</v>
+        <v>4174.768996914402</v>
       </c>
       <c r="W38" t="n">
-        <v>3769.913542325435</v>
+        <v>3769.913542325436</v>
       </c>
       <c r="X38" t="n">
         <v>3350.771078904746</v>
       </c>
       <c r="Y38" t="n">
-        <v>2942.484955204399</v>
+        <v>2942.4849552044</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>521.1474960685445</v>
       </c>
       <c r="K39" t="n">
-        <v>607.6760925789729</v>
+        <v>906.3177806826113</v>
       </c>
       <c r="L39" t="n">
-        <v>724.0244688792895</v>
+        <v>1022.666156982928</v>
       </c>
       <c r="M39" t="n">
-        <v>859.7975362233821</v>
+        <v>1158.43922432702</v>
       </c>
       <c r="N39" t="n">
-        <v>999.1641126547016</v>
+        <v>1297.80580075834</v>
       </c>
       <c r="O39" t="n">
-        <v>1126.65730261861</v>
+        <v>1425.298990722248</v>
       </c>
       <c r="P39" t="n">
         <v>1527.62351566646</v>
@@ -7332,25 +7332,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J40" t="n">
-        <v>219.790812604258</v>
+        <v>133.2111274395682</v>
       </c>
       <c r="K40" t="n">
-        <v>546.7429745195807</v>
+        <v>443.4643182575271</v>
       </c>
       <c r="L40" t="n">
-        <v>1031.742832023601</v>
+        <v>928.4641757615474</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.647363972575</v>
+        <v>1458.368707710521</v>
       </c>
       <c r="N40" t="n">
-        <v>2072.652385888021</v>
+        <v>1969.373729625967</v>
       </c>
       <c r="O40" t="n">
-        <v>2555.819895034571</v>
+        <v>2452.541238772517</v>
       </c>
       <c r="P40" t="n">
-        <v>2957.660520030505</v>
+        <v>2854.381863768451</v>
       </c>
       <c r="Q40" t="n">
         <v>3060.192497658394</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1796.076937222041</v>
+        <v>2475.118144431697</v>
       </c>
       <c r="C41" t="n">
-        <v>1357.934464405465</v>
+        <v>2036.97567161512</v>
       </c>
       <c r="D41" t="n">
-        <v>922.0246795799092</v>
+        <v>1601.065886789565</v>
       </c>
       <c r="E41" t="n">
-        <v>488.2499347382043</v>
+        <v>1167.29114194786</v>
       </c>
       <c r="F41" t="n">
-        <v>60.38250514741202</v>
+        <v>739.4237123570675</v>
       </c>
       <c r="G41" t="n">
-        <v>60.38250514741202</v>
+        <v>339.0477227438243</v>
       </c>
       <c r="H41" t="n">
-        <v>60.38250514741202</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="I41" t="n">
         <v>98.58461283384875</v>
@@ -7417,46 +7417,46 @@
         <v>310.9817374637267</v>
       </c>
       <c r="L41" t="n">
-        <v>469.0270711036906</v>
+        <v>469.0270711036907</v>
       </c>
       <c r="M41" t="n">
-        <v>1216.260572302914</v>
+        <v>644.8829568537871</v>
       </c>
       <c r="N41" t="n">
-        <v>1963.494073502138</v>
+        <v>823.5843746869882</v>
       </c>
       <c r="O41" t="n">
-        <v>2704.044860390306</v>
+        <v>1385.176483126351</v>
       </c>
       <c r="P41" t="n">
-        <v>2848.062835037226</v>
+        <v>2132.409984325574</v>
       </c>
       <c r="Q41" t="n">
-        <v>2956.214336221344</v>
+        <v>2787.060271468286</v>
       </c>
       <c r="R41" t="n">
         <v>3019.125257370601</v>
       </c>
       <c r="S41" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="T41" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="U41" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="V41" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="W41" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="X41" t="n">
-        <v>2630.662631407296</v>
+        <v>2901.417714916605</v>
       </c>
       <c r="Y41" t="n">
-        <v>2222.376507706949</v>
+        <v>2901.417714916605</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>181.6762185087391</v>
       </c>
       <c r="G42" t="n">
-        <v>96.83786231847486</v>
+        <v>96.83786231847485</v>
       </c>
       <c r="H42" t="n">
-        <v>60.38250514741202</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="I42" t="n">
-        <v>104.8955218884673</v>
+        <v>104.8955218884672</v>
       </c>
       <c r="J42" t="n">
-        <v>170.8550191164844</v>
+        <v>480.0802557807501</v>
       </c>
       <c r="K42" t="n">
-        <v>257.3836156269128</v>
+        <v>566.6088522911786</v>
       </c>
       <c r="L42" t="n">
-        <v>373.7319919272295</v>
+        <v>682.9572285914952</v>
       </c>
       <c r="M42" t="n">
-        <v>509.5050592713218</v>
+        <v>818.7302959355877</v>
       </c>
       <c r="N42" t="n">
-        <v>1256.738560470546</v>
+        <v>958.0968723669074</v>
       </c>
       <c r="O42" t="n">
-        <v>1384.231750434454</v>
+        <v>1085.590062330816</v>
       </c>
       <c r="P42" t="n">
-        <v>1486.556275378665</v>
+        <v>1187.914587275027</v>
       </c>
       <c r="Q42" t="n">
         <v>1554.957510483088</v>
@@ -7548,61 +7548,61 @@
         <v>1121.122812028338</v>
       </c>
       <c r="C43" t="n">
-        <v>948.5611005115628</v>
+        <v>948.5611005115629</v>
       </c>
       <c r="D43" t="n">
         <v>782.6831077130855</v>
       </c>
       <c r="E43" t="n">
-        <v>612.9251039638228</v>
+        <v>612.9251039638229</v>
       </c>
       <c r="F43" t="n">
         <v>436.2180499255791</v>
       </c>
       <c r="G43" t="n">
-        <v>271.0851379883505</v>
+        <v>271.0851379883502</v>
       </c>
       <c r="H43" t="n">
         <v>135.2582277708257</v>
       </c>
       <c r="I43" t="n">
-        <v>60.38250514741202</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="J43" t="n">
-        <v>178.7235723164636</v>
+        <v>92.14388715177377</v>
       </c>
       <c r="K43" t="n">
-        <v>505.6757342317863</v>
+        <v>419.0960490670964</v>
       </c>
       <c r="L43" t="n">
-        <v>990.6755917358066</v>
+        <v>904.0959065711166</v>
       </c>
       <c r="M43" t="n">
-        <v>1520.58012368478</v>
+        <v>1434.000438520091</v>
       </c>
       <c r="N43" t="n">
-        <v>2031.585145600227</v>
+        <v>1945.005460435537</v>
       </c>
       <c r="O43" t="n">
-        <v>2514.752654746777</v>
+        <v>2428.172969582086</v>
       </c>
       <c r="P43" t="n">
-        <v>2916.59327974271</v>
+        <v>2830.01359457802</v>
       </c>
       <c r="Q43" t="n">
-        <v>3019.1252573706</v>
+        <v>3019.125257370601</v>
       </c>
       <c r="R43" t="n">
-        <v>3018.317104991646</v>
+        <v>3018.317104991647</v>
       </c>
       <c r="S43" t="n">
-        <v>2867.063753942564</v>
+        <v>2867.063753942565</v>
       </c>
       <c r="T43" t="n">
         <v>2623.14276776978</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.734768643082</v>
+        <v>2344.734768643083</v>
       </c>
       <c r="V43" t="n">
         <v>2057.779260513513</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2074.742154818454</v>
+        <v>1611.340930015349</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.599682001877</v>
+        <v>1173.198457198772</v>
       </c>
       <c r="D44" t="n">
-        <v>1200.689897176321</v>
+        <v>1173.198457198772</v>
       </c>
       <c r="E44" t="n">
-        <v>766.9151523346166</v>
+        <v>739.4237123570675</v>
       </c>
       <c r="F44" t="n">
-        <v>339.0477227438243</v>
+        <v>739.4237123570675</v>
       </c>
       <c r="G44" t="n">
         <v>339.0477227438243</v>
       </c>
       <c r="H44" t="n">
-        <v>60.38250514741202</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="I44" t="n">
         <v>98.58461283384875</v>
       </c>
       <c r="J44" t="n">
-        <v>183.586277114855</v>
+        <v>618.8409645677729</v>
       </c>
       <c r="K44" t="n">
-        <v>930.8197783140787</v>
+        <v>746.2364249166445</v>
       </c>
       <c r="L44" t="n">
-        <v>1088.865111954043</v>
+        <v>1493.469926115868</v>
       </c>
       <c r="M44" t="n">
-        <v>1810.101975114231</v>
+        <v>1669.325811865964</v>
       </c>
       <c r="N44" t="n">
-        <v>1988.803392947432</v>
+        <v>1848.027229699165</v>
       </c>
       <c r="O44" t="n">
-        <v>2157.546074431712</v>
+        <v>2016.769911183445</v>
       </c>
       <c r="P44" t="n">
-        <v>2301.564049078631</v>
+        <v>2160.787885830366</v>
       </c>
       <c r="Q44" t="n">
-        <v>2956.214336221344</v>
+        <v>2787.060271468286</v>
       </c>
       <c r="R44" t="n">
         <v>3019.125257370601</v>
       </c>
       <c r="S44" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="T44" t="n">
-        <v>2803.53114256333</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="U44" t="n">
-        <v>2803.53114256333</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="V44" t="n">
-        <v>2440.914192497156</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="W44" t="n">
-        <v>2440.914192497156</v>
+        <v>2865.069087621293</v>
       </c>
       <c r="X44" t="n">
-        <v>2440.914192497156</v>
+        <v>2445.926624200603</v>
       </c>
       <c r="Y44" t="n">
-        <v>2440.914192497156</v>
+        <v>2037.640500500257</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>181.6762185087391</v>
       </c>
       <c r="G45" t="n">
-        <v>96.83786231847486</v>
+        <v>96.83786231847485</v>
       </c>
       <c r="H45" t="n">
-        <v>60.38250514741202</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="I45" t="n">
-        <v>104.8955218884673</v>
+        <v>78.83184872800966</v>
       </c>
       <c r="J45" t="n">
-        <v>155.5219308145378</v>
+        <v>355.1557833466521</v>
       </c>
       <c r="K45" t="n">
-        <v>242.0505273249663</v>
+        <v>441.6843798570806</v>
       </c>
       <c r="L45" t="n">
-        <v>358.3989036252829</v>
+        <v>558.0327561573973</v>
       </c>
       <c r="M45" t="n">
-        <v>1105.632404824507</v>
+        <v>693.8058235014897</v>
       </c>
       <c r="N45" t="n">
-        <v>1256.738560470546</v>
+        <v>833.1723999328095</v>
       </c>
       <c r="O45" t="n">
-        <v>1384.231750434454</v>
+        <v>960.6655898967178</v>
       </c>
       <c r="P45" t="n">
-        <v>1486.556275378665</v>
+        <v>1062.990114840929</v>
       </c>
       <c r="Q45" t="n">
-        <v>1554.957510483088</v>
+        <v>1672.130288577427</v>
       </c>
       <c r="R45" t="n">
         <v>1705.40021312863</v>
@@ -7803,19 +7803,19 @@
         <v>135.2582277708257</v>
       </c>
       <c r="I46" t="n">
-        <v>60.38250514741202</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="J46" t="n">
-        <v>92.14388715177377</v>
+        <v>178.7235723164636</v>
       </c>
       <c r="K46" t="n">
-        <v>402.397077969734</v>
+        <v>505.6757342317863</v>
       </c>
       <c r="L46" t="n">
-        <v>887.3969354737543</v>
+        <v>990.6755917358066</v>
       </c>
       <c r="M46" t="n">
-        <v>1417.301467422728</v>
+        <v>1520.58012368478</v>
       </c>
       <c r="N46" t="n">
         <v>1928.306489338174</v>
@@ -7824,28 +7824,28 @@
         <v>2411.473998484724</v>
       </c>
       <c r="P46" t="n">
-        <v>2813.314623480658</v>
+        <v>2813.314623480657</v>
       </c>
       <c r="Q46" t="n">
         <v>3019.125257370601</v>
       </c>
       <c r="R46" t="n">
-        <v>3018.317104991648</v>
+        <v>3018.317104991647</v>
       </c>
       <c r="S46" t="n">
-        <v>2867.063753942566</v>
+        <v>2867.063753942564</v>
       </c>
       <c r="T46" t="n">
-        <v>2623.142767769781</v>
+        <v>2623.14276776978</v>
       </c>
       <c r="U46" t="n">
-        <v>2344.734768643083</v>
+        <v>2344.734768643082</v>
       </c>
       <c r="V46" t="n">
-        <v>2057.779260513514</v>
+        <v>2057.779260513513</v>
       </c>
       <c r="W46" t="n">
-        <v>1785.752856099806</v>
+        <v>1785.752856099804</v>
       </c>
       <c r="X46" t="n">
         <v>1540.361101433217</v>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8151,10 +8151,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8385,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="O7" t="n">
-        <v>41.31500304752735</v>
       </c>
       <c r="P7" t="n">
         <v>41.31500304752734</v>
@@ -8455,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="O9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>13.31876740878121</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -8610,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>41.31500304752734</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,22 +8695,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>406.7212531826576</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>577.14910651427</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>574.2748316828511</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>396.8176029849321</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>609.3086126790943</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8865,10 +8865,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>334.149417043413</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>65.5698167699793</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>371.6874721864144</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>577.14910651427</v>
+        <v>566.475016216634</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>609.3086126790945</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>301.6582708117559</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>83.2940145836111</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>919.6412862270897</v>
       </c>
       <c r="M17" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>424.2769360951092</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>301.658270811756</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>301.6582708117558</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.0240442090594</v>
+        <v>65.56981676997839</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>919.6412862270909</v>
+        <v>919.6412862270899</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>301.6582708117562</v>
+        <v>301.6582708117558</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9573,13 +9573,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>407.0406849781998</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.56981676997839</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>326.7420720979661</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>919.6412862270906</v>
       </c>
       <c r="M23" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9719,13 +9719,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>301.658270811756</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>301.658270811756</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.0240442090594</v>
+        <v>65.56981676997839</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>227.9772986793658</v>
       </c>
       <c r="K27" t="n">
-        <v>301.658270811756</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.0240442090594</v>
+        <v>65.56981676997839</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>497.6047637677202</v>
+        <v>676.500201080948</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>227.9772986793658</v>
       </c>
       <c r="K30" t="n">
-        <v>301.658270811756</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>919.6412862270909</v>
       </c>
       <c r="P32" t="n">
-        <v>593.4434503157527</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>227.9772986793661</v>
+        <v>227.9772986793658</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.0240442090594</v>
+        <v>65.56981676997839</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1090.4896101117</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>838.2807129110056</v>
       </c>
       <c r="O35" t="n">
-        <v>919.6412862270909</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>301.658270811756</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>301.658270811756</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>319.5864575391188</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.56981676997839</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>326.7420720979661</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>919.6412862270906</v>
       </c>
       <c r="M38" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>301.658270811756</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>301.658270811756</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>260.6661449230019</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.56981676997839</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>577.14910651427</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>574.2748316828511</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>577.5839448524125</v>
+        <v>396.8176029849319</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>609.3086126790943</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>15.4879679817642</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>614.0069947150547</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>301.6582708117558</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.56981676997839</v>
+        <v>153.0240442090603</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>626.0990311619718</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>595.1395631911712</v>
       </c>
       <c r="M44" t="n">
-        <v>550.8898761718096</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>523.3544287412151</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>227.9772986793656</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,10 +11384,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>617.6368018738701</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>11.85816082294878</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>260.6661449230032</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11466,7 +11466,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>342.4041887834262</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>412.4131607403204</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>225.860665345238</v>
+        <v>396.3722297171108</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>59.76298808426327</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4381736591986</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5491497884846</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.3722297171108</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>164.5017274602385</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5491497884846</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>283.3484508042629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>396.3722297171108</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>275.8785654204481</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>59.76298808426327</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>213.4381736591986</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>30.37303908281041</v>
+        <v>358.1835598412899</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>59.52625747814324</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.3722297171108</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>59.76298808426327</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.4381736591986</v>
       </c>
       <c r="U44" t="n">
         <v>256.5491497884846</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>308.0542800755253</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369947.0690774612</v>
+        <v>369947.0690774611</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>549553.4634818563</v>
+        <v>549553.4634818562</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>549553.4634818563</v>
+        <v>549553.4634818562</v>
       </c>
     </row>
     <row r="11">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="C2" t="n">
         <v>536147.3198904085</v>
@@ -26325,16 +26325,16 @@
         <v>377570.4425120804</v>
       </c>
       <c r="F2" t="n">
-        <v>377570.4425120805</v>
+        <v>377570.4425120804</v>
       </c>
       <c r="G2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="H2" t="n">
         <v>536147.3198904084</v>
       </c>
       <c r="I2" t="n">
-        <v>536147.3198904082</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="J2" t="n">
         <v>536147.3198904082</v>
@@ -26346,16 +26346,16 @@
         <v>536147.3198904082</v>
       </c>
       <c r="M2" t="n">
+        <v>536147.3198904083</v>
+      </c>
+      <c r="N2" t="n">
         <v>536147.3198904082</v>
-      </c>
-      <c r="N2" t="n">
-        <v>536147.3198904083</v>
       </c>
       <c r="O2" t="n">
         <v>377570.4425120804</v>
       </c>
       <c r="P2" t="n">
-        <v>377570.4425120805</v>
+        <v>377570.4425120804</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>415194.7254882888</v>
+        <v>415194.7254882889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736725</v>
+        <v>10809.82265736714</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>301646.5989996908</v>
       </c>
       <c r="E4" t="n">
-        <v>87339.3500721111</v>
+        <v>87339.35007211109</v>
       </c>
       <c r="F4" t="n">
-        <v>87339.35007211109</v>
+        <v>87339.35007211108</v>
       </c>
       <c r="G4" t="n">
         <v>148255.7813882426</v>
       </c>
       <c r="H4" t="n">
+        <v>148255.7813882426</v>
+      </c>
+      <c r="I4" t="n">
         <v>148255.7813882427</v>
-      </c>
-      <c r="I4" t="n">
-        <v>148255.7813882426</v>
       </c>
       <c r="J4" t="n">
         <v>148255.7813882426</v>
       </c>
       <c r="K4" t="n">
+        <v>148255.7813882427</v>
+      </c>
+      <c r="L4" t="n">
+        <v>148255.7813882427</v>
+      </c>
+      <c r="M4" t="n">
         <v>148255.7813882426</v>
       </c>
-      <c r="L4" t="n">
-        <v>148255.7813882426</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>148255.7813882427</v>
       </c>
-      <c r="N4" t="n">
-        <v>148255.7813882426</v>
-      </c>
       <c r="O4" t="n">
-        <v>87339.35007211112</v>
+        <v>87339.35007211109</v>
       </c>
       <c r="P4" t="n">
-        <v>87339.3500721111</v>
+        <v>87339.35007211105</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>51376.48441078433</v>
+        <v>51376.48441078434</v>
       </c>
       <c r="F5" t="n">
-        <v>51376.48441078433</v>
+        <v>51376.48441078432</v>
       </c>
       <c r="G5" t="n">
-        <v>82587.58702950807</v>
+        <v>82587.58702950805</v>
       </c>
       <c r="H5" t="n">
-        <v>82587.58702950807</v>
+        <v>82587.58702950805</v>
       </c>
       <c r="I5" t="n">
         <v>82587.58702950807</v>
@@ -26530,40 +26530,40 @@
         <v>198361.168705428</v>
       </c>
       <c r="E6" t="n">
-        <v>-176340.1174591039</v>
+        <v>-176736.5596525497</v>
       </c>
       <c r="F6" t="n">
-        <v>238854.6080291851</v>
+        <v>238458.1658357392</v>
       </c>
       <c r="G6" t="n">
-        <v>164605.0195441562</v>
+        <v>164605.0195441561</v>
       </c>
       <c r="H6" t="n">
         <v>305303.9514726577</v>
       </c>
       <c r="I6" t="n">
-        <v>305303.9514726575</v>
+        <v>305303.9514726577</v>
       </c>
       <c r="J6" t="n">
-        <v>294494.1288152903</v>
+        <v>294494.1288152904</v>
       </c>
       <c r="K6" t="n">
         <v>305303.9514726576</v>
       </c>
       <c r="L6" t="n">
-        <v>305303.9514726575</v>
+        <v>305303.9514726574</v>
       </c>
       <c r="M6" t="n">
-        <v>127505.2928326677</v>
+        <v>127505.2928326678</v>
       </c>
       <c r="N6" t="n">
-        <v>305303.9514726576</v>
+        <v>305303.9514726574</v>
       </c>
       <c r="O6" t="n">
-        <v>238854.608029185</v>
+        <v>238458.1658357392</v>
       </c>
       <c r="P6" t="n">
-        <v>238854.608029185</v>
+        <v>238458.1658357392</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="F3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="G3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="H3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="I3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="J3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="K3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="L3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="M3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="N3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="O3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="P3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>754.7813143426501</v>
       </c>
       <c r="F4" t="n">
-        <v>754.7813143426501</v>
+        <v>754.78131434265</v>
       </c>
       <c r="G4" t="n">
         <v>1268.12181794008</v>
@@ -26828,10 +26828,10 @@
         <v>1268.12181794008</v>
       </c>
       <c r="O4" t="n">
-        <v>754.7813143426503</v>
+        <v>754.7813143426501</v>
       </c>
       <c r="P4" t="n">
-        <v>754.7813143426503</v>
+        <v>754.7813143426501</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.6413072821655</v>
+        <v>251.6413072821656</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752694</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27460,13 +27460,13 @@
         <v>83.70060738470343</v>
       </c>
       <c r="C3" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
         <v>52.82438291738493</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -27511,7 +27511,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27542,19 +27542,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>127.8289581862304</v>
       </c>
       <c r="E4" t="n">
         <v>126.7454206642428</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27590,13 +27590,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>234.3336676918984</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>247.6956983640117</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27703,16 +27703,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>46.15974531573791</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
         <v>43.21623578895061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003292614422299778</v>
+        <v>4.928040977687559</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -27782,19 +27782,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>152.8738121091899</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>227.7512255173414</v>
       </c>
       <c r="Y7" t="n">
         <v>183.8304709315055</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -27946,10 +27946,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>48.14098415221586</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="10">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.713820929217</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28022,16 +28022,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>159.7533718952811</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31761,7 +31761,7 @@
         <v>39.0006090411887</v>
       </c>
       <c r="J11" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K11" t="n">
         <v>128.6822831806785</v>
@@ -31785,13 +31785,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R11" t="n">
-        <v>63.54638499924958</v>
+        <v>63.54638499924959</v>
       </c>
       <c r="S11" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T11" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U11" t="n">
         <v>0.08092986766863608</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H12" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I12" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J12" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K12" t="n">
         <v>87.40262273780651</v>
@@ -31910,28 +31910,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H13" t="n">
         <v>4.03451145117964</v>
       </c>
       <c r="I13" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J13" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K13" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L13" t="n">
         <v>67.46462195561534</v>
       </c>
       <c r="M13" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420295</v>
       </c>
       <c r="N13" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O13" t="n">
         <v>64.13965648562477</v>
@@ -31940,16 +31940,16 @@
         <v>54.88255659150703</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.99783739960699</v>
+        <v>37.997837399607</v>
       </c>
       <c r="R13" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S13" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391986</v>
       </c>
       <c r="T13" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U13" t="n">
         <v>0.02475160399496713</v>
@@ -31995,10 +31995,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I14" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J14" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K14" t="n">
         <v>128.6822831806785</v>
@@ -32016,22 +32016,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P14" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q14" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R14" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S14" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T14" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H15" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I15" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J15" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K15" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M15" t="n">
         <v>137.1445124687802</v>
@@ -32098,10 +32098,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q15" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R15" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S15" t="n">
         <v>10.05378241830161</v>
@@ -32110,7 +32110,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H16" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I16" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J16" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K16" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L16" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M16" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N16" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O16" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P16" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R16" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S16" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T16" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U16" t="n">
         <v>0.02475160399496713</v>
@@ -32232,10 +32232,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I17" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J17" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K17" t="n">
         <v>128.6822831806785</v>
@@ -32253,22 +32253,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P17" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q17" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R17" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S17" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T17" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H18" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I18" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J18" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K18" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L18" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M18" t="n">
         <v>137.1445124687802</v>
@@ -32335,10 +32335,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R18" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S18" t="n">
         <v>10.05378241830161</v>
@@ -32347,7 +32347,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H19" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I19" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J19" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K19" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L19" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M19" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N19" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O19" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P19" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R19" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S19" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T19" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U19" t="n">
         <v>0.02475160399496713</v>
@@ -32469,10 +32469,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I20" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J20" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K20" t="n">
         <v>128.6822831806785</v>
@@ -32490,22 +32490,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P20" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q20" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R20" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S20" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T20" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H21" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I21" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J21" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K21" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L21" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M21" t="n">
         <v>137.1445124687802</v>
@@ -32572,10 +32572,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q21" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R21" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S21" t="n">
         <v>10.05378241830161</v>
@@ -32584,7 +32584,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H22" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I22" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J22" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K22" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L22" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M22" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N22" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O22" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P22" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R22" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S22" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T22" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U22" t="n">
         <v>0.02475160399496713</v>
@@ -32706,10 +32706,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I23" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J23" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K23" t="n">
         <v>128.6822831806785</v>
@@ -32727,22 +32727,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P23" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q23" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R23" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S23" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T23" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H24" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I24" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J24" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K24" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L24" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M24" t="n">
         <v>137.1445124687802</v>
@@ -32809,10 +32809,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R24" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S24" t="n">
         <v>10.05378241830161</v>
@@ -32821,7 +32821,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,46 +32858,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H25" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I25" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J25" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K25" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L25" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M25" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N25" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O25" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P25" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R25" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S25" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T25" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U25" t="n">
         <v>0.02475160399496713</v>
@@ -32943,10 +32943,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I26" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J26" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K26" t="n">
         <v>128.6822831806785</v>
@@ -32964,22 +32964,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P26" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q26" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R26" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S26" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T26" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H27" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I27" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J27" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K27" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L27" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M27" t="n">
         <v>137.1445124687802</v>
@@ -33046,10 +33046,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R27" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S27" t="n">
         <v>10.05378241830161</v>
@@ -33058,7 +33058,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,46 +33095,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H28" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I28" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J28" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K28" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L28" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M28" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N28" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O28" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P28" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R28" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S28" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T28" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U28" t="n">
         <v>0.02475160399496713</v>
@@ -33180,10 +33180,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I29" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J29" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K29" t="n">
         <v>128.6822831806785</v>
@@ -33201,22 +33201,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P29" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q29" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R29" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S29" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T29" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H30" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I30" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J30" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K30" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L30" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M30" t="n">
         <v>137.1445124687802</v>
@@ -33283,10 +33283,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q30" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R30" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S30" t="n">
         <v>10.05378241830161</v>
@@ -33295,7 +33295,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,46 +33332,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H31" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I31" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J31" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K31" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L31" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M31" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N31" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O31" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P31" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R31" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S31" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T31" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U31" t="n">
         <v>0.02475160399496713</v>
@@ -33417,10 +33417,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I32" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J32" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K32" t="n">
         <v>128.6822831806785</v>
@@ -33438,22 +33438,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P32" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q32" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R32" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S32" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T32" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H33" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I33" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J33" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K33" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L33" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M33" t="n">
         <v>137.1445124687802</v>
@@ -33520,10 +33520,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q33" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R33" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S33" t="n">
         <v>10.05378241830161</v>
@@ -33532,7 +33532,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,46 +33569,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H34" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I34" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J34" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K34" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L34" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M34" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N34" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O34" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P34" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R34" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S34" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T34" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U34" t="n">
         <v>0.02475160399496713</v>
@@ -33654,10 +33654,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I35" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J35" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K35" t="n">
         <v>128.6822831806785</v>
@@ -33675,22 +33675,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P35" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q35" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R35" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S35" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T35" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H36" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I36" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J36" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K36" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L36" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M36" t="n">
         <v>137.1445124687802</v>
@@ -33757,10 +33757,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q36" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R36" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S36" t="n">
         <v>10.05378241830161</v>
@@ -33769,7 +33769,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,46 +33806,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H37" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I37" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J37" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K37" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L37" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M37" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N37" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O37" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P37" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R37" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S37" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T37" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U37" t="n">
         <v>0.02475160399496713</v>
@@ -33891,10 +33891,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I38" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J38" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K38" t="n">
         <v>128.6822831806785</v>
@@ -33912,22 +33912,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P38" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q38" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R38" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S38" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T38" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H39" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I39" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J39" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K39" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L39" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M39" t="n">
         <v>137.1445124687802</v>
@@ -33994,10 +33994,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q39" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R39" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S39" t="n">
         <v>10.05378241830161</v>
@@ -34006,7 +34006,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H40" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I40" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J40" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K40" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L40" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M40" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N40" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O40" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P40" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R40" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S40" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T40" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U40" t="n">
         <v>0.02475160399496713</v>
@@ -34128,10 +34128,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I41" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J41" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K41" t="n">
         <v>128.6822831806785</v>
@@ -34149,22 +34149,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P41" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q41" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R41" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S41" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T41" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H42" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I42" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J42" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K42" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L42" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M42" t="n">
         <v>137.1445124687802</v>
@@ -34231,10 +34231,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R42" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S42" t="n">
         <v>10.05378241830161</v>
@@ -34243,7 +34243,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,46 +34280,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H43" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I43" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J43" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K43" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L43" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M43" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N43" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O43" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P43" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R43" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S43" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T43" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U43" t="n">
         <v>0.02475160399496713</v>
@@ -34365,10 +34365,10 @@
         <v>10.36028759076775</v>
       </c>
       <c r="I44" t="n">
-        <v>39.0006090411887</v>
+        <v>39.00060904118871</v>
       </c>
       <c r="J44" t="n">
-        <v>85.86026695051136</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K44" t="n">
         <v>128.6822831806785</v>
@@ -34386,22 +34386,22 @@
         <v>170.447153014424</v>
       </c>
       <c r="P44" t="n">
-        <v>145.4727016635558</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q44" t="n">
         <v>109.2439405900179</v>
       </c>
       <c r="R44" t="n">
-        <v>63.54638499924958</v>
+        <v>63.5463849992496</v>
       </c>
       <c r="S44" t="n">
         <v>23.05236699373809</v>
       </c>
       <c r="T44" t="n">
-        <v>4.428381196493183</v>
+        <v>4.428381196493184</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08092986766863608</v>
+        <v>0.08092986766863609</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5412662081163561</v>
+        <v>0.5412662081163562</v>
       </c>
       <c r="H45" t="n">
-        <v>5.22749206259744</v>
+        <v>5.227492062597441</v>
       </c>
       <c r="I45" t="n">
-        <v>18.63570058646226</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J45" t="n">
-        <v>51.13778679401065</v>
+        <v>51.13778679401066</v>
       </c>
       <c r="K45" t="n">
-        <v>87.40262273780651</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L45" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M45" t="n">
         <v>137.1445124687802</v>
@@ -34468,10 +34468,10 @@
         <v>103.358106004254</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.09215667113347</v>
+        <v>69.09215667113348</v>
       </c>
       <c r="R45" t="n">
-        <v>33.60598439515412</v>
+        <v>33.60598439515413</v>
       </c>
       <c r="S45" t="n">
         <v>10.05378241830161</v>
@@ -34480,7 +34480,7 @@
         <v>2.181682654644435</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03560961895502344</v>
+        <v>0.03560961895502345</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4537794065743968</v>
+        <v>0.4537794065743969</v>
       </c>
       <c r="H46" t="n">
-        <v>4.03451145117964</v>
+        <v>4.034511451179641</v>
       </c>
       <c r="I46" t="n">
-        <v>13.64638433589186</v>
+        <v>13.64638433589187</v>
       </c>
       <c r="J46" t="n">
         <v>32.08220404480986</v>
       </c>
       <c r="K46" t="n">
-        <v>52.72091650927991</v>
+        <v>52.72091650927992</v>
       </c>
       <c r="L46" t="n">
-        <v>67.46462195561534</v>
+        <v>67.46462195561536</v>
       </c>
       <c r="M46" t="n">
-        <v>71.13198461420293</v>
+        <v>71.13198461420296</v>
       </c>
       <c r="N46" t="n">
-        <v>69.44062500788024</v>
+        <v>69.44062500788026</v>
       </c>
       <c r="O46" t="n">
-        <v>64.13965648562477</v>
+        <v>64.13965648562478</v>
       </c>
       <c r="P46" t="n">
-        <v>54.88255659150703</v>
+        <v>54.88255659150704</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.99783739960699</v>
+        <v>37.99783739960701</v>
       </c>
       <c r="R46" t="n">
-        <v>20.40357222651787</v>
+        <v>20.40357222651788</v>
       </c>
       <c r="S46" t="n">
-        <v>7.908137476391985</v>
+        <v>7.908137476391987</v>
       </c>
       <c r="T46" t="n">
-        <v>1.938875646272422</v>
+        <v>1.938875646272423</v>
       </c>
       <c r="U46" t="n">
         <v>0.02475160399496713</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34871,10 +34871,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -35105,10 +35105,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="O7" t="n">
-        <v>41.31500304752735</v>
       </c>
       <c r="P7" t="n">
         <v>41.31500304752734</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="O9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>13.31876740878121</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35330,19 +35330,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>41.31500304752734</v>
@@ -35351,7 +35351,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>128.6822831806785</v>
       </c>
       <c r="L11" t="n">
-        <v>566.3630043341363</v>
+        <v>159.6417511514788</v>
       </c>
       <c r="M11" t="n">
+        <v>177.6322078283801</v>
+      </c>
+      <c r="N11" t="n">
+        <v>180.5064826597991</v>
+      </c>
+      <c r="O11" t="n">
+        <v>567.2647559993561</v>
+      </c>
+      <c r="P11" t="n">
         <v>754.7813143426501</v>
       </c>
-      <c r="N11" t="n">
-        <v>754.7813143426501</v>
-      </c>
-      <c r="O11" t="n">
-        <v>170.4471530144242</v>
-      </c>
-      <c r="P11" t="n">
-        <v>145.4727016635557</v>
-      </c>
       <c r="Q11" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R11" t="n">
         <v>234.4090766690042</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.08220404480986</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K13" t="n">
-        <v>330.2547090053764</v>
+        <v>330.2547090053765</v>
       </c>
       <c r="L13" t="n">
         <v>489.8988459636569</v>
       </c>
       <c r="M13" t="n">
-        <v>535.2571029787616</v>
+        <v>535.2571029787615</v>
       </c>
       <c r="N13" t="n">
-        <v>516.1666888034808</v>
+        <v>516.1666888034811</v>
       </c>
       <c r="O13" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P13" t="n">
-        <v>389.0319736349202</v>
+        <v>405.8996212080137</v>
       </c>
       <c r="Q13" t="n">
-        <v>207.8895291817607</v>
+        <v>103.5676541695861</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>38.58798756205731</v>
       </c>
       <c r="J14" t="n">
-        <v>457.5477391369258</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K14" t="n">
         <v>128.6822831806785</v>
       </c>
       <c r="L14" t="n">
-        <v>159.6417511514787</v>
+        <v>159.6417511514788</v>
       </c>
       <c r="M14" t="n">
-        <v>754.7813143426501</v>
+        <v>744.1072240450142</v>
       </c>
       <c r="N14" t="n">
         <v>180.5064826597991</v>
@@ -35664,10 +35664,10 @@
         <v>170.447153014424</v>
       </c>
       <c r="P14" t="n">
-        <v>754.7813143426501</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R14" t="n">
         <v>234.4090766690042</v>
@@ -35725,28 +35725,28 @@
         <v>44.96264317278307</v>
       </c>
       <c r="J15" t="n">
-        <v>378.9744786790736</v>
+        <v>51.13778679401065</v>
       </c>
       <c r="K15" t="n">
-        <v>389.0608935495624</v>
+        <v>87.40262273780652</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M15" t="n">
         <v>137.1445124687802</v>
       </c>
       <c r="N15" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275957</v>
       </c>
       <c r="O15" t="n">
         <v>128.7809999635438</v>
       </c>
       <c r="P15" t="n">
-        <v>103.3581060042541</v>
+        <v>186.6521205878652</v>
       </c>
       <c r="Q15" t="n">
-        <v>69.09215667113358</v>
+        <v>615.2931047843412</v>
       </c>
       <c r="R15" t="n">
         <v>151.9623259045882</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480987</v>
       </c>
       <c r="K16" t="n">
         <v>330.2547090053764</v>
@@ -35883,28 +35883,28 @@
         <v>38.58798756205731</v>
       </c>
       <c r="J17" t="n">
-        <v>85.86026695051135</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K17" t="n">
-        <v>128.6822831806784</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L17" t="n">
-        <v>1245.56090898265</v>
+        <v>1079.283037378568</v>
       </c>
       <c r="M17" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283802</v>
       </c>
       <c r="N17" t="n">
-        <v>604.7834187549083</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O17" t="n">
-        <v>1160.527624297562</v>
+        <v>170.4471530144242</v>
       </c>
       <c r="P17" t="n">
-        <v>145.4727016635561</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R17" t="n">
         <v>234.4090766690033</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.96264317278306</v>
+        <v>44.96264317278307</v>
       </c>
       <c r="J18" t="n">
         <v>378.9744786790736</v>
       </c>
       <c r="K18" t="n">
-        <v>389.0608935495625</v>
+        <v>87.4026227378065</v>
       </c>
       <c r="L18" t="n">
         <v>117.5236124245623</v>
@@ -35974,16 +35974,16 @@
         <v>137.1445124687802</v>
       </c>
       <c r="N18" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275957</v>
       </c>
       <c r="O18" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P18" t="n">
         <v>103.3581060042541</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.09215667113358</v>
+        <v>370.7504274828893</v>
       </c>
       <c r="R18" t="n">
         <v>151.9623259045882</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>32.08220404480986</v>
+        <v>119.5364314838906</v>
       </c>
       <c r="K19" t="n">
         <v>330.2547090053765</v>
       </c>
       <c r="L19" t="n">
-        <v>489.8988459636569</v>
+        <v>489.898845963657</v>
       </c>
       <c r="M19" t="n">
         <v>535.2571029787616</v>
@@ -36056,13 +36056,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O19" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P19" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q19" t="n">
-        <v>191.0218816086663</v>
+        <v>103.5676541695852</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>180.5064826597988</v>
       </c>
       <c r="O20" t="n">
-        <v>1090.088439241515</v>
+        <v>1090.088439241514</v>
       </c>
       <c r="P20" t="n">
         <v>982.1493429094107</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>44.96264317278306</v>
+        <v>44.96264317278307</v>
       </c>
       <c r="J21" t="n">
         <v>378.9744786790736</v>
@@ -36211,16 +36211,16 @@
         <v>137.1445124687802</v>
       </c>
       <c r="N21" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275957</v>
       </c>
       <c r="O21" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P21" t="n">
         <v>103.3581060042541</v>
       </c>
       <c r="Q21" t="n">
-        <v>370.7504274828896</v>
+        <v>370.7504274828893</v>
       </c>
       <c r="R21" t="n">
         <v>151.9623259045882</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>119.5364314838905</v>
+        <v>32.08220404480987</v>
       </c>
       <c r="K22" t="n">
         <v>330.2547090053765</v>
       </c>
       <c r="L22" t="n">
-        <v>489.898845963657</v>
+        <v>489.8988459636569</v>
       </c>
       <c r="M22" t="n">
         <v>535.2571029787616</v>
@@ -36293,13 +36293,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O22" t="n">
-        <v>488.0479890369193</v>
+        <v>471.1803414638246</v>
       </c>
       <c r="P22" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.5676541695852</v>
+        <v>207.8895291817607</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>38.58798756205731</v>
       </c>
       <c r="J23" t="n">
-        <v>412.6023390484774</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K23" t="n">
-        <v>128.6822831806785</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L23" t="n">
-        <v>1245.56090898265</v>
+        <v>1079.283037378569</v>
       </c>
       <c r="M23" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283802</v>
       </c>
       <c r="N23" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O23" t="n">
-        <v>170.4471530144237</v>
+        <v>170.4471530144242</v>
       </c>
       <c r="P23" t="n">
-        <v>145.4727016635561</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q23" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R23" t="n">
         <v>234.4090766690033</v>
@@ -36439,13 +36439,13 @@
         <v>378.9744786790736</v>
       </c>
       <c r="K24" t="n">
-        <v>87.4026227378065</v>
+        <v>389.0608935495625</v>
       </c>
       <c r="L24" t="n">
         <v>117.5236124245623</v>
       </c>
       <c r="M24" t="n">
-        <v>438.8027832805362</v>
+        <v>137.1445124687802</v>
       </c>
       <c r="N24" t="n">
         <v>140.7743196275956</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>32.08220404480986</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K25" t="n">
         <v>330.2547090053765</v>
       </c>
       <c r="L25" t="n">
-        <v>489.8988459636569</v>
+        <v>489.898845963657</v>
       </c>
       <c r="M25" t="n">
         <v>535.2571029787616</v>
@@ -36530,13 +36530,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O25" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P25" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q25" t="n">
-        <v>191.0218816086663</v>
+        <v>103.5676541695852</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>44.96264317278307</v>
+        <v>18.63570058646226</v>
       </c>
       <c r="J27" t="n">
-        <v>378.9744786790736</v>
+        <v>279.1150854733765</v>
       </c>
       <c r="K27" t="n">
-        <v>389.0608935495625</v>
+        <v>87.40262273780655</v>
       </c>
       <c r="L27" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M27" t="n">
         <v>137.1445124687802</v>
       </c>
       <c r="N27" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275957</v>
       </c>
       <c r="O27" t="n">
         <v>128.7809999635438</v>
@@ -36694,10 +36694,10 @@
         <v>103.3581060042541</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.09215667113335</v>
+        <v>615.293104784341</v>
       </c>
       <c r="R27" t="n">
-        <v>151.9623259045882</v>
+        <v>33.60598439515411</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>32.08220404480987</v>
+        <v>119.5364314838906</v>
       </c>
       <c r="K28" t="n">
         <v>330.2547090053765</v>
       </c>
       <c r="L28" t="n">
-        <v>489.8988459636569</v>
+        <v>489.898845963657</v>
       </c>
       <c r="M28" t="n">
         <v>535.2571029787616</v>
@@ -36767,13 +36767,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O28" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P28" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q28" t="n">
-        <v>191.0218816086663</v>
+        <v>103.5676541695852</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>38.58798756205731</v>
       </c>
       <c r="J29" t="n">
-        <v>85.86026695051135</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6822831806784</v>
+        <v>128.6822831806785</v>
       </c>
       <c r="L29" t="n">
         <v>1245.56090898265</v>
       </c>
       <c r="M29" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283802</v>
       </c>
       <c r="N29" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O29" t="n">
-        <v>668.051916782144</v>
+        <v>846.9473540953722</v>
       </c>
       <c r="P29" t="n">
-        <v>145.4727016635561</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q29" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R29" t="n">
-        <v>63.54638499924931</v>
+        <v>234.4090766690033</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>44.96264317278306</v>
+        <v>18.63570058646226</v>
       </c>
       <c r="J30" t="n">
-        <v>378.9744786790736</v>
+        <v>279.1150854733765</v>
       </c>
       <c r="K30" t="n">
-        <v>389.0608935495625</v>
+        <v>87.40262273780655</v>
       </c>
       <c r="L30" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M30" t="n">
         <v>137.1445124687802</v>
       </c>
       <c r="N30" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275957</v>
       </c>
       <c r="O30" t="n">
         <v>128.7809999635438</v>
@@ -36931,10 +36931,10 @@
         <v>103.3581060042541</v>
       </c>
       <c r="Q30" t="n">
-        <v>69.09215667113358</v>
+        <v>615.2931047843413</v>
       </c>
       <c r="R30" t="n">
-        <v>151.9623259045882</v>
+        <v>33.60598439515411</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>38.58798756205731</v>
       </c>
       <c r="J32" t="n">
-        <v>85.86026695051135</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K32" t="n">
-        <v>128.6822831806784</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L32" t="n">
         <v>159.6417511514787</v>
       </c>
       <c r="M32" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283802</v>
       </c>
       <c r="N32" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597988</v>
       </c>
       <c r="O32" t="n">
-        <v>1160.527624297562</v>
+        <v>1090.088439241515</v>
       </c>
       <c r="P32" t="n">
-        <v>738.9161519793088</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R32" t="n">
-        <v>63.54638499924931</v>
+        <v>234.4090766690033</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>18.63570058646226</v>
       </c>
       <c r="J33" t="n">
-        <v>279.1150854733767</v>
+        <v>279.1150854733765</v>
       </c>
       <c r="K33" t="n">
-        <v>87.4026227378065</v>
+        <v>87.40262273780655</v>
       </c>
       <c r="L33" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M33" t="n">
         <v>137.1445124687802</v>
       </c>
       <c r="N33" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275957</v>
       </c>
       <c r="O33" t="n">
         <v>128.7809999635438</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>32.08220404480986</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K34" t="n">
         <v>330.2547090053765</v>
       </c>
       <c r="L34" t="n">
-        <v>489.8988459636569</v>
+        <v>489.898845963657</v>
       </c>
       <c r="M34" t="n">
         <v>535.2571029787616</v>
@@ -37241,13 +37241,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O34" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P34" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q34" t="n">
-        <v>191.0218816086663</v>
+        <v>103.5676541695852</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>38.58798756205731</v>
       </c>
       <c r="J35" t="n">
-        <v>525.5114663979032</v>
+        <v>85.86026695051137</v>
       </c>
       <c r="K35" t="n">
-        <v>971.460355865707</v>
+        <v>971.4603558657068</v>
       </c>
       <c r="L35" t="n">
         <v>159.6417511514787</v>
       </c>
       <c r="M35" t="n">
-        <v>177.6322078283802</v>
+        <v>1268.12181794008</v>
       </c>
       <c r="N35" t="n">
-        <v>180.5064826597988</v>
+        <v>1018.787195570805</v>
       </c>
       <c r="O35" t="n">
-        <v>1090.088439241515</v>
+        <v>1160.527624297562</v>
       </c>
       <c r="P35" t="n">
-        <v>982.1493429094107</v>
+        <v>145.4727016635561</v>
       </c>
       <c r="Q35" t="n">
-        <v>661.26291630577</v>
+        <v>109.2439405900177</v>
       </c>
       <c r="R35" t="n">
-        <v>234.4090766690033</v>
+        <v>63.54638499924931</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>378.9744786790736</v>
       </c>
       <c r="K36" t="n">
-        <v>87.4026227378065</v>
+        <v>389.0608935495625</v>
       </c>
       <c r="L36" t="n">
         <v>117.5236124245623</v>
@@ -37402,7 +37402,7 @@
         <v>128.7809999635438</v>
       </c>
       <c r="P36" t="n">
-        <v>405.0163768160101</v>
+        <v>103.3581060042541</v>
       </c>
       <c r="Q36" t="n">
         <v>69.09215667113358</v>
@@ -37478,13 +37478,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O37" t="n">
-        <v>488.0479890369193</v>
+        <v>383.7261140247438</v>
       </c>
       <c r="P37" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.5676541695852</v>
+        <v>207.8895291817607</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>38.58798756205731</v>
       </c>
       <c r="J38" t="n">
-        <v>412.6023390484774</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K38" t="n">
-        <v>128.6822831806785</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L38" t="n">
-        <v>1245.56090898265</v>
+        <v>1079.283037378569</v>
       </c>
       <c r="M38" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283802</v>
       </c>
       <c r="N38" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O38" t="n">
-        <v>170.4471530144237</v>
+        <v>170.4471530144242</v>
       </c>
       <c r="P38" t="n">
-        <v>145.4727016635561</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q38" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R38" t="n">
         <v>234.4090766690033</v>
@@ -37624,7 +37624,7 @@
         <v>378.9744786790736</v>
       </c>
       <c r="K39" t="n">
-        <v>87.4026227378065</v>
+        <v>389.0608935495625</v>
       </c>
       <c r="L39" t="n">
         <v>117.5236124245623</v>
@@ -37639,7 +37639,7 @@
         <v>128.7809999635438</v>
       </c>
       <c r="P39" t="n">
-        <v>405.0163768160101</v>
+        <v>103.3581060042541</v>
       </c>
       <c r="Q39" t="n">
         <v>69.09215667113358</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>119.5364314838905</v>
+        <v>32.08220404480986</v>
       </c>
       <c r="K40" t="n">
-        <v>330.2547090053765</v>
+        <v>313.3870614322818</v>
       </c>
       <c r="L40" t="n">
-        <v>489.898845963657</v>
+        <v>489.8988459636569</v>
       </c>
       <c r="M40" t="n">
         <v>535.2571029787616</v>
@@ -37721,7 +37721,7 @@
         <v>405.8996212080137</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.5676541695852</v>
+        <v>207.8895291817607</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>128.6822831806785</v>
       </c>
       <c r="L41" t="n">
-        <v>159.6417511514787</v>
+        <v>159.6417511514788</v>
       </c>
       <c r="M41" t="n">
+        <v>177.6322078283802</v>
+      </c>
+      <c r="N41" t="n">
+        <v>180.5064826597991</v>
+      </c>
+      <c r="O41" t="n">
+        <v>567.264755999356</v>
+      </c>
+      <c r="P41" t="n">
         <v>754.7813143426501</v>
       </c>
-      <c r="N41" t="n">
-        <v>754.7813143426501</v>
-      </c>
-      <c r="O41" t="n">
-        <v>748.0310978668367</v>
-      </c>
-      <c r="P41" t="n">
-        <v>145.4727016635557</v>
-      </c>
       <c r="Q41" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R41" t="n">
-        <v>63.54638499924977</v>
+        <v>234.4090766690042</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>44.96264317278307</v>
       </c>
       <c r="J42" t="n">
-        <v>66.62575477577487</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K42" t="n">
         <v>87.4026227378065</v>
@@ -37870,7 +37870,7 @@
         <v>137.1445124687802</v>
       </c>
       <c r="N42" t="n">
-        <v>754.7813143426503</v>
+        <v>140.7743196275957</v>
       </c>
       <c r="O42" t="n">
         <v>128.7809999635438</v>
@@ -37879,7 +37879,7 @@
         <v>103.3581060042541</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.09215667113358</v>
+        <v>370.7504274828893</v>
       </c>
       <c r="R42" t="n">
         <v>151.9623259045882</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>119.5364314838905</v>
+        <v>32.08220404480986</v>
       </c>
       <c r="K43" t="n">
-        <v>330.2547090053765</v>
+        <v>330.2547090053764</v>
       </c>
       <c r="L43" t="n">
         <v>489.8988459636569</v>
       </c>
       <c r="M43" t="n">
-        <v>535.2571029787615</v>
+        <v>535.2571029787616</v>
       </c>
       <c r="N43" t="n">
-        <v>516.1666888034811</v>
+        <v>516.1666888034808</v>
       </c>
       <c r="O43" t="n">
-        <v>488.0479890369193</v>
+        <v>488.047989036919</v>
       </c>
       <c r="P43" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.5676541695852</v>
+        <v>191.0218816086672</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>38.58798756205731</v>
       </c>
       <c r="J44" t="n">
-        <v>85.86026695051136</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K44" t="n">
-        <v>754.7813143426503</v>
+        <v>128.6822831806785</v>
       </c>
       <c r="L44" t="n">
-        <v>159.6417511514788</v>
+        <v>754.78131434265</v>
       </c>
       <c r="M44" t="n">
-        <v>728.5220840001898</v>
+        <v>177.6322078283802</v>
       </c>
       <c r="N44" t="n">
         <v>180.5064826597991</v>
@@ -38034,13 +38034,13 @@
         <v>170.447153014424</v>
       </c>
       <c r="P44" t="n">
-        <v>145.4727016635557</v>
+        <v>145.4727016635559</v>
       </c>
       <c r="Q44" t="n">
-        <v>661.26291630577</v>
+        <v>632.5983693312332</v>
       </c>
       <c r="R44" t="n">
-        <v>63.54638499924977</v>
+        <v>234.4090766690042</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.96264317278307</v>
+        <v>18.63570058646227</v>
       </c>
       <c r="J45" t="n">
-        <v>51.13778679401067</v>
+        <v>279.1150854733762</v>
       </c>
       <c r="K45" t="n">
-        <v>87.4026227378065</v>
+        <v>87.40262273780655</v>
       </c>
       <c r="L45" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245624</v>
       </c>
       <c r="M45" t="n">
-        <v>754.7813143426504</v>
+        <v>137.1445124687802</v>
       </c>
       <c r="N45" t="n">
-        <v>152.6324804505443</v>
+        <v>140.7743196275957</v>
       </c>
       <c r="O45" t="n">
         <v>128.7809999635438</v>
@@ -38116,10 +38116,10 @@
         <v>103.3581060042541</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.09215667113358</v>
+        <v>615.2931047843415</v>
       </c>
       <c r="R45" t="n">
-        <v>151.9623259045882</v>
+        <v>33.60598439515411</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.08220404480986</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K46" t="n">
-        <v>313.3870614322831</v>
+        <v>330.2547090053765</v>
       </c>
       <c r="L46" t="n">
         <v>489.8988459636569</v>
       </c>
       <c r="M46" t="n">
-        <v>535.2571029787616</v>
+        <v>535.2571029787615</v>
       </c>
       <c r="N46" t="n">
-        <v>516.1666888034808</v>
+        <v>411.8448137913065</v>
       </c>
       <c r="O46" t="n">
         <v>488.0479890369193</v>
